--- a/biology/Zoologie/Eumorpha_megaeacus/Eumorpha_megaeacus.xlsx
+++ b/biology/Zoologie/Eumorpha_megaeacus/Eumorpha_megaeacus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eumorpha megaeacus est une espèce d'insectes lépidoptères de la famille des Sphingidae, sous-famille des Macroglossinae, de la tribu des Philampelini et du genre Eumorpha.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'envergure varie de 105 à 121 mm. La face dorsale est foncée et peut être distinguée des autres espèces d'Eumorpha par la présence d'une bande brune longitudinale, bien que mal définie, qui s'étend parallèlement à la marge arrière de la base de l'aile sur le dessus de l'aile antérieure.
 			Face dorsale de la femelle (coll.MHNT)
@@ -544,7 +558,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est connue dans la plus grande partie de l'Amérique centrale et de l'Amérique du Sud : Suriname, Venezuela, Guyane, Équateur, le sud du Brésil, en Bolivie jusqu'au Nicaragua, au Costa Rica et au Mexique.
 </t>
@@ -575,7 +591,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les chenilles se développent sur des plantes grimpantes du genre Jussiaea  et d'autres espèces d'Onagraceae.
 Les chrysalides sont souterraines.
@@ -607,12 +625,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce Eumorpha megaeacus a été décrite par le naturaliste allemand Jacob Hübner en 18161 sous le nom initial de Daphnis megaeacus[1].
-Synonymie
-Daphnis megaeacus Hübner, 1819 Protonyme
-Sphinx eacus Cramer, 1780 [2]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'espèce Eumorpha megaeacus a été décrite par le naturaliste allemand Jacob Hübner en 18161 sous le nom initial de Daphnis megaeacus.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eumorpha_megaeacus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eumorpha_megaeacus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Daphnis megaeacus Hübner, 1819 Protonyme
+Sphinx eacus Cramer, 1780 
 Eumorpha eacus</t>
         </is>
       </c>
